--- a/09.cleaning/01.cost_dist/02.project.no.unique/01.unique lists/unique_projects_with.org.xlsx
+++ b/09.cleaning/01.cost_dist/02.project.no.unique/01.unique lists/unique_projects_with.org.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Rowad Modern Engineering\x004 Data Science\03.rme.db\01.tables\01.cost.dist\02.xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Rowad Modern Engineering\x004 Data Science\03.rme.db\00.repo\rme.db\09.cleaning\01.cost_dist\02.project.no.unique\01.unique lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B59270-71E7-4071-8CB9-F6B4338C4D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E93AB6D-9F4A-4F08-BE85-66933ADE9E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1277,7 +1277,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C798"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A781" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
